--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/4_Ağrı_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/4_Ağrı_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A245B7B6-5C86-430C-B5A9-BA89BC76B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9E8FEB-4965-4769-921C-E6C1BFA5F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{01FB3B32-AD1A-4AD3-A79F-FC3E17BC48F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{0187E649-7D44-481E-8835-B7765A37377D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -960,15 +960,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C1A8DB83-56A0-4EDD-8777-375B0AC5450D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2E357068-78BD-4549-A228-1697C2B8A82D}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8FB31154-6487-440F-A050-3265A9C33ABC}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A425E9B4-F7D4-4927-B94E-30546B8D9CF3}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{619C594F-E23D-4D0F-8414-C144E1A6FC63}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F126B6D6-4274-45E7-B0B0-FC99980E993D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{E3831E19-52B6-467A-9DFE-1577CB833AB5}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{85C8B32F-13B3-484E-8A0B-0F6EE91EDDD4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{239EB53D-488E-4738-999F-1FE112EE8F85}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{77533FC7-402A-4C87-ACA6-CF2978A4F009}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6EBA82BE-261F-462B-82C2-AF77BC9B7F6E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4D10ACDB-0F41-4C03-B612-BBBA8CCE0725}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{04082958-D71C-45D3-9A51-042B5564F025}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{075453F8-8767-4B8D-A421-23F5219BAB02}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{34606BAF-A88D-4E7C-AB10-BF47AB71163E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{73850A02-51E1-47F0-9920-7E61B317B16B}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{9BAC89F9-8095-4DE2-9E62-39DFC1CD3BDF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{86F27AFF-8616-4831-8666-2C9D75DCBDFF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599FF16E-CC2E-45A0-A82E-0A49CF463AFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C748F8-E74F-4324-94CF-0910DEB36B82}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2652,18 +2652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E74D336-A20E-49B5-8493-E842030A3558}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95887916-768C-4750-843E-58ECEF7354BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9B5357A-702B-42C4-BC5B-36A480470D48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F64810CD-D0C4-42A9-8ABB-0555FA216111}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{984BB131-3B9A-4306-A511-D036A96FAE99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3BF998F-B9AD-42E9-8CF0-491C40F749E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DBAFBC1-B1BA-4883-A61C-157F74E217FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15A66DAE-CCF0-498D-AB60-9C59CAFD36AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6F6CC93-DBEF-4F11-A908-AEEA3A810D9C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D23D5D70-9550-4EAD-AEB3-423A1662E704}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA19EA9A-913F-4DE5-A3AC-030BC584890A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A650904C-C383-4389-B2A9-AB0112CE30C9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10EC4375-C3BC-4B67-A5CF-6E00B876CFC8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED9B34A0-41D2-4650-B074-4A8B10070090}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F47C19C7-74AE-49EE-A7C3-B53CA2B0E49F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D6CDF22-1525-476A-908A-C27C560E7C71}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A7EB56CA-8B8F-4152-B3F8-95C653751233}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C7E9D21-002D-4ECA-A48A-7D3B47C1CD8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD073789-C207-4518-899E-34A41DCDA7AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89F990C2-EA6F-497D-BF20-7475D110A9DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A19BDE51-DC70-4624-91C3-E0CDFC932479}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3709ED40-0697-4DD0-BC09-76C54EBB44C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{821ADF73-4EAB-49BB-A6FB-D1B8135691B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3678C6F-A68A-4658-A209-B68975CF3384}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2676,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D17FA45-18D6-43EA-8005-4E18EF03373F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68527EB-858A-4BD4-B155-F81032BB9610}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3973,18 +3973,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB9FAD45-1A4F-417E-BBD3-7B104E976750}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5FC0F53-EBB4-4B80-A445-5AC96C6B2515}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EDB4C093-19EB-4AA6-8882-DD0D85FD8702}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16E3F32E-8D81-4091-A8E8-2A03F6EB2CA1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A27CA8A8-D98C-44CC-A73F-0423F216DF8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCD1C953-024D-4BC9-B59A-E05E04424EA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{579FE9D7-D4AE-4973-A191-F0DD7BECC20B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C03B9C76-2BCF-40FA-8629-0BCFD08ACD40}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1BCD32E-A3B5-4D35-8693-6B5F178FFDA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06134B5E-C293-4035-950A-988F7E131277}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C75E6D32-9417-4B66-891D-85CC9B43D9BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC57F03A-9F0E-4EDC-BA1F-E5A96D8B9FDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F67C0D39-EB58-4AD5-97C8-6C7013574A33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{452BD403-3A21-4C45-8DE4-811B9BC97E70}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C62B5450-D0B0-4408-A866-9379EAB50F46}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56DC1610-71DB-435A-8F59-609EF285D2D6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DE1800E1-BD82-4F95-90F0-368B3E5C6898}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29AF7876-11EF-4AF0-A4ED-5F719601D2C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE8B1376-20DD-4910-B4AB-68BC7A70AEFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{888078B0-E890-49B2-9A69-F26D118A108C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1EA543A-59C7-4970-9B10-0E9EBC2C6866}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8819C05A-6EB4-4520-951F-3639E2978C8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EB8D49A-16B9-44B2-B2F5-FFD2D2D2E60C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3701DCB8-D15C-4E25-9E8D-D7CC0A37F0E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3997,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E756CC4-BA70-481B-AB75-D1EAC571F377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA154FAD-FBBB-4F0D-8ED9-D32BC0CE8DBF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5292,18 +5292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AF701D8-2E10-4B88-BA7C-3EF4014C92B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECD74079-7F11-449D-80BC-C71BB51E0378}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{66F1EE16-853B-4D6B-A9B1-57586DF9F2E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDC4882D-2146-4938-9958-1F0ED01DE22D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7F5CE7A0-2431-4D17-8F81-D0EBA7430129}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CDFC8C4-7E79-471A-AD22-FE05EB87F535}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05A9B995-8BAA-41D2-8577-615FC2FF1509}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28A2F3CA-0AAE-4741-B808-0210DB4BEB3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B2724FB-ED2E-461E-8F16-1E8A4709031B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A222E0D-CC01-4E63-B170-5C02ED260D0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{886B7E1C-DE8E-4733-B733-2836DD5158CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C6DAE2E-C749-4D1E-80DB-DD905388AB8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B28AA009-97C8-4192-95F5-AC91C1BC9F30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76AC061D-392C-4E0F-A54B-DCC72545CEC2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52175913-4321-4957-B07E-F5C35950D0DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E7E38D1-2A63-4413-A2F9-BC23A47BF487}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C8C98906-BD64-4C42-AB38-6BD14E345082}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E74CE05F-0B3A-4A11-9069-DACC4F5D1B8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A8BD9A5-84F6-4A6D-9CDF-18DD77CAA13F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C22294C-7C3E-4904-A9AE-8855D6E1DDEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4841EC6-533F-4CAD-96C1-2B61BB3BCE63}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A68EE6F3-70EA-4BFE-A1B0-3C2465D281CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2726772-B2A8-4632-84A0-826F72B4CCE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40717553-B4E2-4722-85AA-06B35F22512E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5316,7 +5316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D5D1C2-AC9B-4305-B950-57C6683F88F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BA22CD-A6B3-479F-869D-5CC1351C1F77}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6596,18 +6596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F49D22A2-867C-4810-B1CC-65F821DC6AA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACEA284C-E1F8-45FE-823A-918D3653F26B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EABCAF2-3263-487F-806C-F118E3466488}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECF10AB2-521F-4A20-B64E-93B3FAB7EFDF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{90AD9273-3071-4D95-9F2F-E7510F222B03}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BE79D3D-B864-41E9-84F1-3BAD6EC46D71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07F86650-1FEB-4FEE-B919-62216DB53D30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F38EB5A-E4D7-473E-BF0A-C888DACF8228}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB94A499-39E1-491C-A9B5-5A61C50F4164}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{376B6BB8-93E3-4DB8-8CE1-2357D560FA44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38BD7A4A-84EB-4D34-9F3A-BBBFFCA487FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F082959-33F4-4808-95CE-EA6C72C004C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88A98455-77E8-439E-97FD-4ED3C9C0B9F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F26A86F8-5793-474A-BF32-4C3669CF1E63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7FAD2CD6-75A1-40E6-915B-78D57E73E14A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87F8EC5B-7D90-4DFC-8F29-3858BF3AD55E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{683C24CF-82A0-4E99-9F45-E4EC8BE5AFB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDD14F9B-CF74-4F06-ADCA-BF690044B386}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F792B958-951E-4421-99BB-64720C8F4B7A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57AF325E-7EC5-411D-9895-3281AE0223ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{133C8B05-9FA2-407F-8AC9-CAF71DBD96A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FCEC154-72FC-4070-8CC0-E8C70A56A3EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71D17A69-1C1B-4E44-88BF-DA302D3BD002}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96F094AA-ED48-4F74-8338-FF81F642FB6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6620,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1343E71-F8A5-4B74-B882-38C642BCC86A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151EB094-6362-4C62-8E68-9F7B24BE8143}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7931,18 +7931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35CA11C2-D723-47DF-BAC2-D868AF2D8EDC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D3DC2B3-B6D2-49BB-9EA7-74FFF59EA7E9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E11108E8-F4A8-4838-8294-77A1FDD10828}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A68D978D-17BE-4A0D-82AD-ADF24B3C6BC0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DEC654DA-DA56-46DD-924D-B537755A7AA1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1A2EC2E-E960-4A1F-B2FC-F074EDC8C022}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9AED971-EFAC-4810-9258-1E133AD67822}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE036624-3FF4-4E3B-BA5F-2F23004B9EA6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4C72860-1CD6-4D02-982D-8D078DFDB613}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{202AF0F6-C9E2-4B46-B75F-47ACAE98FF97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B9C67D5-C010-44A5-8904-CEC49547E148}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2817ED5-51F1-4AEF-B748-AE11669CE0E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21816320-BAA9-4F29-9695-7FA81B3FBED4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C9E635C-0774-4199-9CC1-E9839DAE99A1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B54DA56D-4010-4D2C-9975-FE428D5C806A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A6EFC4B-29A3-4218-9AC3-075BFF5BF876}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{14E16C7F-9897-489D-952F-FAD54AF8EFFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF98E5F1-54C4-4DCD-9528-CAB458F6F22A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2B60857-DFF2-4376-9248-7DD1CEAC7228}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AA42192-6670-4B3F-A8A3-F65027DA848D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C77ED721-1A46-4ADE-83D8-98C92D2BDB8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EB51DFC-3C83-4BC7-98BB-26E81803082E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{793CBDE0-E37F-4FA5-B09D-2AE0D5316DFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC78B8D0-EB0C-4F9D-A0BE-589F05F5EFAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7955,7 +7955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF19550-2DA7-4F93-993A-4910085FE030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C640B1-E375-415B-A5E3-C25E842595DA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9266,18 +9266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A5BFA7F-1BA9-45E4-8787-D1C4883134AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EC211DB-4EC9-48B8-A1E5-794FD05626E2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9DFA4D6-B939-4FD3-96C7-27427BB63688}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98B8A438-979B-4AD2-A149-5DAF90DF130B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F3935E4B-B7BA-49D9-8A1D-369C4EC3B8EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDFC2D79-110E-4EE0-82C5-C0FCCF70A2E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACFEE7D5-A749-4CFA-A6BA-FEB144F05782}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D4B260A-D5FD-4119-AA96-726650CF4B12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EFEEA9C-A1CD-49E2-BD6D-34AA24347E85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4876A1E-F02F-46CC-B194-216A602B8AA5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1421DE69-39BD-4523-A9FE-81FC29A01615}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1DFBC9D-9EC9-4096-8FB2-4132241F033E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58771A27-8EA5-4CE6-B6EC-3D1587815E18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C98EA5EB-2B92-4D62-BBAE-BEE3E418FC7E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE559B9B-E5C4-4F0D-872F-BD6DE5A8816B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F52F651-3000-4638-8818-7B5262A6C365}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DE17B0FE-F68F-458A-8D49-03F6BD7D86F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D43ECCC-D63C-45BF-820E-F2124CA698A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{064D7A7A-988E-47D8-926E-B301C2D44B54}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8C6BC7C-075B-4980-B42A-D21516CE98A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFCBD415-E089-471A-9B4D-FC4F6B9BAD08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{269638C7-8FB7-48FC-BEA5-120C0B8FE349}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FE10A98-0BD3-4FE2-A042-C657623F522C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A15425D9-941B-44BB-AD52-BCBBF620CB9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9290,7 +9290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76EE74-9EE3-49ED-93EE-13242297EC76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE57A39F-D276-4FF7-B20B-EB5AD1D3CBB2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10601,18 +10601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{953510E4-8321-488A-90BA-1E358E65AF9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C89FFE3B-CF52-4A46-B2E3-1D2093E19CCD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A3D1E14-9F2C-4508-99C0-9BEB1CA73300}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F17EC4EE-74D6-4542-85AE-21389793BF16}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{61D1FBFB-F0A2-46B3-8284-04674A962F85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE9ECE7B-DEA1-4AEF-89CA-9977FD2F0C35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AAE7F06-D709-46EE-BF88-32B5E6EB1989}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{479BFDD9-861A-42E9-AD59-5D8F8CD1E00E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73D670FD-99F0-4A20-9B73-625BAEACD25F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03DA48C3-4EE2-4E3A-95D8-BA98F66681AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20C8DF6B-6900-4BE6-B19F-2CB7609BBD1A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F368B21-6C37-42CA-A428-4DD622236B94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E99CB822-6664-4A8D-AD98-FFF1F13D90CA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B42C599A-1254-4046-8521-3684519B7FFB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C8D6166-4AB8-4860-B1B2-71FEC7A665AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71D03880-B3C1-4EC2-A00C-1FB4E0F4A174}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{83619D0B-911A-4A8E-AE85-B025656A1624}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFE9DCF0-EAB2-4D72-862A-E8C81AD07818}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B24D41E7-78A9-487C-A2EC-48F93B3C3098}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30509A08-82C7-4577-97EC-B692485C2380}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69B58A46-8888-487E-BE1B-8CF257A1E774}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECEC9252-4941-4C54-B0BC-E8CA1E4C66FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4619D578-9B2B-474D-BA4E-7F235F3F4053}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1D66F16-EC8E-4E3C-B552-5C259F3C78DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10625,7 +10625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847235A1-A5AA-4440-954A-13918394E110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EB6A76-C939-4120-BEC9-AF754D76C235}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11936,18 +11936,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A14C6D57-0824-4E37-9A46-48D6E9127F09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BE10B24-628B-42E3-BE71-961387BDCAFC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{12AA21C6-EB06-4553-AF89-C29BA1A6DDBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94280E89-C782-42C8-990E-53E34002BDD2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{63937C67-CAFE-4BD0-A25C-7C29384D9CBD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{474E8BBF-BE38-49D6-807B-BA6701078FAC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39BC49E1-5E6E-4EA8-A239-E1DD3B807A3E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BF5F74D-56CF-44F5-99A9-5D035ECF0846}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9E23783-94AE-4681-BB6C-FF1D0461D986}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D8B07E8-AFA5-4A1C-B34C-C32C3565C77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8AA110E-53F2-4891-8B7D-5DA2CAF45694}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5173273E-90D9-4907-916E-CCDBC6F2CB04}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{981B7B60-DEF8-4FAC-970B-BB6087139241}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC162F2B-1CF0-40C2-98AE-DFC8BCE95D9C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{969F408E-9450-4270-BD74-E1815B71508A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B387AAFA-7FD9-4150-A853-B5676F67539C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{28104AD9-E662-4FFA-B3A8-C49A42D898AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC1F9662-C0CA-4C81-90E1-71D007019394}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24891E00-9E95-4F7A-9E5C-7754B1D35CEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F99B96B9-2131-4613-B7F9-F5D6D05D1CFB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCCC074B-F2AC-4529-82F7-98D24A6E0E9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{521753FC-C804-462F-BB82-3085E60EE3BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9CDC516-FBAD-478B-8B1D-60D2F49CDEDC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD5775D3-5255-40D3-80E8-E7B0969B5013}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11960,7 +11960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9E33CB-A971-428C-947C-FDAFD73900C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C8E398-7045-4F7D-9028-6811DFC6458A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13265,18 +13265,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D27AE502-5970-4AD7-80E7-E333D7153258}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE3E2A5B-5E8B-409C-9D38-DB16DE81CD79}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40EDE982-8A30-4B4D-B24A-3B827305E147}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82486B13-8F57-41A1-AA7D-167577CD3444}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{30858EE4-494D-4E10-A773-F29F7BBAD722}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C0760BD-7548-4F6A-A645-4C89DDD64F11}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC777DA7-98B0-4F3F-94E9-25428EBFA649}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C37C7D27-4643-4D83-B63B-F819BEF02F5E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29164636-E450-414C-8E2D-6C6FEAAF5A66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1811DE12-B0E8-477E-8253-B107459137C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75D68B5B-3221-4E85-8DE3-17F2312647E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68F96C42-B1E0-4862-826E-99B6A71F8482}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B7AE0EA-2E95-4611-B55C-289302F7D3B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C4B8094-3F3C-4EBA-B44E-21262B7C1BAA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1F58D3F5-2ABD-4BFD-8E0B-E8AA3EB2B0F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE50AC8F-D863-4FD1-B438-AEB9E00BB7F1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{297D9226-C31E-4ABC-91C8-683400F839C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7EF1401-3191-43A1-A417-46859010E345}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97A888C3-5709-4F32-A380-FEF39A29482B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B051F9BF-5DE5-45A4-98C2-8B584920558F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1562B0F-5B11-4168-9088-7ED606A6016C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E039EF01-9712-416D-B9B5-E8EBCF081143}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7ECD5388-B7A0-4E49-8C92-5AD160A0B669}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{705FE577-5C85-4023-94F4-3E8A44D5A28C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13289,7 +13289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC8A306-88B1-4339-AE20-8D1763A6800C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5482C772-97BC-4988-8A3E-069903C355CB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14594,18 +14594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F887D41B-9404-4A56-99C1-F58615766E17}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB2B9893-95BC-4C55-8CA7-E7773B59AFBA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C295512-38B3-46CD-88BE-5E801FC347E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB6A123B-1ED9-4BA5-8A03-EF888B9D5982}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{12575941-51C6-412C-A637-1D8FADFB055F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43653A91-DECB-4CB8-8269-2F84BB2F9500}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEEB0F19-0A54-4669-8787-8E811E2B14F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A615CBA6-0652-470C-B585-F446707CFD13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B329F0C6-84A8-4D19-A693-4B8026C96F27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DEF1EF5-B798-4A95-A941-E0722515B680}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CDD27E7-E14A-43E3-9E85-E4C6188288CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5863830-2D62-4E9A-8F37-D4E16D501842}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F32F8EF8-6231-4BD2-B3F2-D0A38C8A4478}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D74F19D-531E-4184-BDD8-F05D3829600D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D25E428B-B0CD-4FCC-A84A-E125139F239A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92EB2FF6-6D02-49E9-BB42-F3E5E03F24F6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E8201647-7135-4EDF-BE64-9E5BF1443D9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{842AE888-0803-4FE3-B918-21C28F3EA088}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09CDBF77-CEA6-439F-B832-F864FFB7EBFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1242EBA-A610-4F8F-8076-1DBFC7AE2665}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F204962-3803-4E51-ADD4-9267798164F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC829D6-75A3-4478-9C7C-2EAF7A01DA52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1E35D98-B457-49BE-99CD-21FB81063B55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{563D0653-5E1F-4819-B747-9676FB28C2FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14618,7 +14618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D071E3-5865-4AC3-A16C-3D9E2806E800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33B8A5-37A3-4F4F-BC34-8663AAC37F78}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15925,18 +15925,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EBFFA4F-E7E7-4BE1-B8DA-4C19BD1C77F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F6A268B-0F75-49C6-8D88-2256AA29CC31}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26A7DF37-1B8E-4C6C-8403-08FBCF1A863D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0736007-B04E-404D-A799-EC5AA958D4AE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6A03FD22-6244-4A11-8AAC-89D2C56A9E60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC72B05F-014C-4462-8045-BBCF4CDB1A17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D74B9027-5786-4846-BDC6-1AF7F7CC46A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BBC448A6-60AA-4755-9653-B774C4C5040D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEBD31FD-9B4C-4578-BD0A-D51A14FBBF8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3F6C4EB-E9CA-4700-AD43-DF32303640C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95DF34A5-48D7-4226-B0A3-0527CA9D27F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04D270E8-7B75-4EC3-B88D-74AFE0E80C5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F9EF00F-DB26-418E-9CA3-E8B1343A1652}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9730E413-814F-408A-BD24-E3AF60BC3321}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4977DB2-82EB-44AF-822E-7C8F1FD93A8A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D3112B2-5659-4A39-9F6F-B6835D24C587}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{958F58BD-54A3-44BE-A8A9-D4301F4D7A7A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF9DEFFB-E001-4390-B379-7A1E17EDD568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2215B98D-A6E7-436E-B4AF-6ABCE444BB1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{526E1387-E748-4C52-993D-874B5385384E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDC2B02C-B3B2-4387-8426-FBEA0AAEBE85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3BDB218-A0ED-4723-92F6-9014829F2476}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73EE3613-4BB2-4092-8551-D5915A22634F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{682F40F5-A381-4256-ADCD-A9A624C0F221}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15949,7 +15949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A4D037-918E-483F-82B7-84F644EA1F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D81EE-9FB6-43BB-B407-DE3C3CDD191C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17256,18 +17256,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C93BEEE-2F79-463E-A038-248E43EA96E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B156D5F-8053-4D44-9EE0-3396C4892391}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92814625-7F97-4DDB-A7EC-20D0578A8D55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99ADEC30-085C-4CD2-BC5C-4284DD8C06FE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BB32EC5B-BF2C-47E8-85E1-A209F0DF7B0C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF332805-E560-4C49-8691-B2669696A856}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79ABEBD2-364C-4060-B3C9-88A23E926932}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{85B45686-E752-464B-AA43-549F0FDC8C08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5199FD9-2CC2-44F5-8306-4661A1CCFE4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{150427D3-74C0-4618-AEEF-3A92F7D43B14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FD19614-6B53-40E6-BC10-A09A880B7A3E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85EF2F18-1434-4DBE-B7B0-A36FD94D7E36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17C108C9-33A5-4D28-BFAF-443B03752CF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4F0A256-9E44-4506-82EF-4EEC0AEC743A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48668E6B-A1E4-49CF-90DD-3E9E97206587}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F5EED91-A9F9-4FA6-8A8A-E4FABCE08F35}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F390B90E-285C-43E6-A5C5-0456E2B2C9F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B482ACA0-39F7-4A23-9D71-57D2DE990F93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41BAAB8E-00B0-4541-8A14-4783698AF091}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EF28ABE-79A0-47DA-995A-9C3B7B1160D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C9771A8-8153-44C1-941E-2DAD3636F844}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D8D5B0A-98F9-4ECD-9CA7-0438B1251AA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2F847DA-CD5E-4908-8A1D-729B1FBE31EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63D0E1EC-7403-47A3-BB89-346D7AD2F020}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
